--- a/biology/Zoologie/Féra/Féra.xlsx
+++ b/biology/Zoologie/Féra/Féra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9ra</t>
+          <t>Féra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,19 +490,21 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « féra » est un nom vernaculaire ambigu en français, pouvant désigner plusieurs espèces différentes de poissons.
 La plupart des espèces viennent de l'ordre des salmoniformes, à savoir des corégones :
-Coregonus fera, aussi appelé Corégone féra, Féra, Féra du Léman ou Palée, qui est aujourd'hui éteint[1],[2],[3],[4] ;
-Coregonus hiemalis, aussi appelé Corégone gravenche, Gravenche ou Petite féra, qui est aujourd'hui éteint[1],[5],[4] ;
-Coregonus lavaretus, aussi appelé Corégone lavaret, Lavaret, Lavaret du Bourget ou Féra[6],[7],[8] ;
-Coregonus nasus (en), aussi appelé Corégone tschir, Palée du Léman, Grand pollan ou Féra[9] ;
-Coregonus restrictus (en), aussi appelé Férit, Grande bondelle, Petite palée ou Petite féra, qui est aujourd'hui éteinte[10],[11].
+Coregonus fera, aussi appelé Corégone féra, Féra, Féra du Léman ou Palée, qui est aujourd'hui éteint ;
+Coregonus hiemalis, aussi appelé Corégone gravenche, Gravenche ou Petite féra, qui est aujourd'hui éteint ;
+Coregonus lavaretus, aussi appelé Corégone lavaret, Lavaret, Lavaret du Bourget ou Féra ;
+Coregonus nasus (en), aussi appelé Corégone tschir, Palée du Léman, Grand pollan ou Féra ;
+Coregonus restrictus (en), aussi appelé Férit, Grande bondelle, Petite palée ou Petite féra, qui est aujourd'hui éteinte,.
 Une autre est issue de l'ordre des cypriniformes :
-Chondrostoma nasus, aussi appelé Hotu, Nase, Nase commun ou Fera[12],[13].
+Chondrostoma nasus, aussi appelé Hotu, Nase, Nase commun ou Fera,.
 Enfin, une dernière est un poisson cartilagineux de l'ordre des chimériformes :
-Chimaera monstrosa, aussi appelé Chimère monstrueuse, Rat de mer, Roi des harengs ou Peis fera[14].
+Chimaera monstrosa, aussi appelé Chimère monstrueuse, Rat de mer, Roi des harengs ou Peis fera.
 			Coregonus fera.
 			Coregonus hiemalis.
 			Coregonus lavaretus.
